--- a/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_FXRates0.xlsx
+++ b/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_FXRates0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723454\Documents\GDE-8271\BEFORE EOD\TL_FX_05_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_01_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2970F3-0739-4A01-B188-5651E279CF5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB65848-E8B1-45C0-88F1-C4F420A7A828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10590" yWindow="555" windowWidth="20025" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed_FXRates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="110">
   <si>
     <t>rowid</t>
   </si>
@@ -67,16 +67,13 @@
     <t>CHF</t>
   </si>
   <si>
-    <t>10.0594</t>
-  </si>
-  <si>
-    <t>11.0594</t>
-  </si>
-  <si>
-    <t>12.0594</t>
-  </si>
-  <si>
-    <t>2021-10-16</t>
+    <t>9.0575</t>
+  </si>
+  <si>
+    <t>9.0594</t>
+  </si>
+  <si>
+    <t>0.993</t>
   </si>
   <si>
     <t>COMRLENDING</t>
@@ -94,13 +91,13 @@
     <t>CNH</t>
   </si>
   <si>
-    <t>10.0595</t>
-  </si>
-  <si>
-    <t>11.0595</t>
-  </si>
-  <si>
-    <t>12.0595</t>
+    <t>9.0576</t>
+  </si>
+  <si>
+    <t>9.0595</t>
+  </si>
+  <si>
+    <t>6.879</t>
   </si>
   <si>
     <t>3</t>
@@ -109,13 +106,13 @@
     <t>SGD</t>
   </si>
   <si>
-    <t>10.0596</t>
-  </si>
-  <si>
-    <t>11.0596</t>
-  </si>
-  <si>
-    <t>12.0596</t>
+    <t>9.0577</t>
+  </si>
+  <si>
+    <t>9.0596</t>
+  </si>
+  <si>
+    <t>1.37</t>
   </si>
   <si>
     <t>4</t>
@@ -124,13 +121,13 @@
     <t>NOK</t>
   </si>
   <si>
-    <t>10.0597</t>
-  </si>
-  <si>
-    <t>11.0597</t>
-  </si>
-  <si>
-    <t>12.0597</t>
+    <t>9.0578</t>
+  </si>
+  <si>
+    <t>9.0597</t>
+  </si>
+  <si>
+    <t>8.56</t>
   </si>
   <si>
     <t>5</t>
@@ -139,13 +136,13 @@
     <t>DKK</t>
   </si>
   <si>
-    <t>10.0598</t>
-  </si>
-  <si>
-    <t>11.0598</t>
-  </si>
-  <si>
-    <t>12.0598</t>
+    <t>9.0579</t>
+  </si>
+  <si>
+    <t>9.0598</t>
+  </si>
+  <si>
+    <t>6.56</t>
   </si>
   <si>
     <t>6</t>
@@ -154,22 +151,22 @@
     <t>GBP</t>
   </si>
   <si>
-    <t>10.0599</t>
-  </si>
-  <si>
-    <t>11.0599</t>
-  </si>
-  <si>
-    <t>12.0599</t>
+    <t>9.058</t>
+  </si>
+  <si>
+    <t>9.0599</t>
+  </si>
+  <si>
+    <t>1.26</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
-    <t>10.06</t>
-  </si>
-  <si>
-    <t>12.06</t>
+    <t>9.0581</t>
+  </si>
+  <si>
+    <t>1.13</t>
   </si>
   <si>
     <t>8</t>
@@ -178,13 +175,13 @@
     <t>IDR</t>
   </si>
   <si>
-    <t>10.0601</t>
-  </si>
-  <si>
-    <t>11.0602</t>
-  </si>
-  <si>
-    <t>12.0601</t>
+    <t>9.0582</t>
+  </si>
+  <si>
+    <t>9.0602</t>
+  </si>
+  <si>
+    <t>145</t>
   </si>
   <si>
     <t>9</t>
@@ -193,13 +190,13 @@
     <t>JPY</t>
   </si>
   <si>
-    <t>10.0602</t>
-  </si>
-  <si>
-    <t>11.0601</t>
-  </si>
-  <si>
-    <t>12.0602</t>
+    <t>9.0583</t>
+  </si>
+  <si>
+    <t>9.0601</t>
+  </si>
+  <si>
+    <t>113.6</t>
   </si>
   <si>
     <t>10</t>
@@ -208,13 +205,13 @@
     <t>MXN</t>
   </si>
   <si>
-    <t>10.0604</t>
-  </si>
-  <si>
-    <t>11.0604</t>
-  </si>
-  <si>
-    <t>12.0603</t>
+    <t>9.0585</t>
+  </si>
+  <si>
+    <t>9.0604</t>
+  </si>
+  <si>
+    <t>20.301</t>
   </si>
   <si>
     <t>11</t>
@@ -223,13 +220,13 @@
     <t>ZAR</t>
   </si>
   <si>
-    <t>10.0605</t>
-  </si>
-  <si>
-    <t>11.0605</t>
-  </si>
-  <si>
-    <t>12.0604</t>
+    <t>9.0586</t>
+  </si>
+  <si>
+    <t>9.0605</t>
+  </si>
+  <si>
+    <t>14.1</t>
   </si>
   <si>
     <t>12</t>
@@ -238,13 +235,13 @@
     <t>HKD</t>
   </si>
   <si>
-    <t>10.0603</t>
-  </si>
-  <si>
-    <t>11.0603</t>
-  </si>
-  <si>
-    <t>12.0605</t>
+    <t>9.0584</t>
+  </si>
+  <si>
+    <t>9.0603</t>
+  </si>
+  <si>
+    <t>7.81</t>
   </si>
   <si>
     <t>13</t>
@@ -253,13 +250,13 @@
     <t>CNY</t>
   </si>
   <si>
-    <t>10.0606</t>
-  </si>
-  <si>
-    <t>11.0606</t>
-  </si>
-  <si>
-    <t>12.0606</t>
+    <t>9.0587</t>
+  </si>
+  <si>
+    <t>9.0606</t>
+  </si>
+  <si>
+    <t>6.88</t>
   </si>
   <si>
     <t>14</t>
@@ -268,13 +265,10 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>10.1607</t>
-  </si>
-  <si>
-    <t>0.875</t>
-  </si>
-  <si>
-    <t>12.1607</t>
+    <t>9.0588</t>
+  </si>
+  <si>
+    <t>0.72</t>
   </si>
   <si>
     <t>15</t>
@@ -283,13 +277,13 @@
     <t>SEK</t>
   </si>
   <si>
-    <t>10.0608</t>
-  </si>
-  <si>
-    <t>11.0608</t>
-  </si>
-  <si>
-    <t>12.0608</t>
+    <t>9.0589</t>
+  </si>
+  <si>
+    <t>9.0608</t>
+  </si>
+  <si>
+    <t>9.056</t>
   </si>
   <si>
     <t>16</t>
@@ -298,13 +292,10 @@
     <t>CAD</t>
   </si>
   <si>
-    <t>10.061</t>
-  </si>
-  <si>
-    <t>11.0609</t>
-  </si>
-  <si>
-    <t>12.0609</t>
+    <t>9.0591</t>
+  </si>
+  <si>
+    <t>9.0609</t>
   </si>
   <si>
     <t>17</t>
@@ -313,13 +304,13 @@
     <t>THB</t>
   </si>
   <si>
-    <t>10.0609</t>
-  </si>
-  <si>
-    <t>11.061</t>
-  </si>
-  <si>
-    <t>12.061</t>
+    <t>9.059</t>
+  </si>
+  <si>
+    <t>9.061</t>
+  </si>
+  <si>
+    <t>9.05</t>
   </si>
   <si>
     <t>18</t>
@@ -328,13 +319,13 @@
     <t>CZK</t>
   </si>
   <si>
-    <t>10.0611</t>
-  </si>
-  <si>
-    <t>11.0611</t>
-  </si>
-  <si>
-    <t>12.0611</t>
+    <t>9.0592</t>
+  </si>
+  <si>
+    <t>9.0611</t>
+  </si>
+  <si>
+    <t>9.05731</t>
   </si>
   <si>
     <t>19</t>
@@ -343,23 +334,29 @@
     <t>NZD</t>
   </si>
   <si>
-    <t>10.0612</t>
-  </si>
-  <si>
-    <t>11.0612</t>
-  </si>
-  <si>
-    <t>12.0612</t>
-  </si>
-  <si>
-    <t>10.101</t>
+    <t>9.0593</t>
+  </si>
+  <si>
+    <t>9.0612</t>
+  </si>
+  <si>
+    <t>9.0574</t>
+  </si>
+  <si>
+    <t>2020-04-25</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>1.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -374,6 +371,11 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -414,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,6 +424,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +745,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -819,650 +822,651 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="H2" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
+      <c r="H3" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
+      <c r="H4" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
+      <c r="H5" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
+      <c r="H6" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>45</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
+      <c r="H7" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
+      <c r="H8" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>53</v>
       </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
+      <c r="H9" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
+      <c r="H10" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
+      <c r="H11" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
+      <c r="H12" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>71</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>72</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
+      <c r="H13" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
         <v>75</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>77</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>18</v>
+      <c r="H14" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>81</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="F15" t="s">
-        <v>83</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
+      <c r="H15" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="F16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
+      <c r="H16" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
         <v>90</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>91</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
       <c r="G17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
         <v>95</v>
       </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" t="s">
-        <v>18</v>
+      <c r="H18" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
         <v>100</v>
       </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>101</v>
       </c>
-      <c r="E19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
+      <c r="H19" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>106</v>
       </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>108</v>
-      </c>
-      <c r="G20" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>18</v>
+      <c r="H20" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_FXRates0.xlsx
+++ b/DataSet/Integration_DataSet/TL/FXRates_GSFile/EU/TL_FX_04_Files/TL_Transformed_Data_FXRates0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_01_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\TL\FXRates_GSFile\EU\TL_FX_04_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB65848-E8B1-45C0-88F1-C4F420A7A828}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA1FAEA-1AA6-4A8D-8477-263398F8B992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="555" windowWidth="20025" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed_FXRates" sheetId="1" r:id="rId1"/>
@@ -343,13 +343,13 @@
     <t>9.0574</t>
   </si>
   <si>
-    <t>2020-04-25</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
     <t>1.11</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -823,7 +823,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -858,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -893,7 +893,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -928,7 +928,7 @@
         <v>35</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -963,7 +963,7 @@
         <v>40</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -998,7 +998,7 @@
         <v>45</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -1033,7 +1033,7 @@
         <v>48</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -1068,7 +1068,7 @@
         <v>53</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -1103,7 +1103,7 @@
         <v>58</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -1138,7 +1138,7 @@
         <v>63</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -1173,7 +1173,7 @@
         <v>68</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1208,7 +1208,7 @@
         <v>73</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1243,7 +1243,7 @@
         <v>78</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1272,13 +1272,13 @@
         <v>81</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
         <v>82</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1313,7 +1313,7 @@
         <v>87</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1348,7 +1348,7 @@
         <v>87</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1383,7 +1383,7 @@
         <v>96</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1418,7 +1418,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1453,7 +1453,7 @@
         <v>106</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
